--- a/simulation_data/iterative_algorithm/i_error_level_8_percent_water_99.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_8_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.65965269866159</v>
+        <v>89.89645314281182</v>
       </c>
       <c r="D2" t="n">
-        <v>22.32973754049471</v>
+        <v>19.0090113091943</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>85.67516148370449</v>
+        <v>89.22843302771183</v>
       </c>
       <c r="D3" t="n">
-        <v>21.03140811487513</v>
+        <v>19.37530702337135</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>92.37242763635206</v>
+        <v>88.31081339071805</v>
       </c>
       <c r="D4" t="n">
-        <v>17.41971126866433</v>
+        <v>18.83523446974017</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.23371028333705</v>
+        <v>86.75907366013421</v>
       </c>
       <c r="D5" t="n">
-        <v>20.05956924317999</v>
+        <v>20.28296057205599</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.06559759341386</v>
+        <v>81.83291746252966</v>
       </c>
       <c r="D6" t="n">
-        <v>21.88081311795129</v>
+        <v>18.98529324152512</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.7247091138279</v>
+        <v>84.10846808848171</v>
       </c>
       <c r="D7" t="n">
-        <v>20.12960888895507</v>
+        <v>22.33647784843491</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>88.10502572314823</v>
+        <v>81.86654216192136</v>
       </c>
       <c r="D8" t="n">
-        <v>18.91248582080785</v>
+        <v>18.29728063994401</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.13709189344171</v>
+        <v>82.86844480443</v>
       </c>
       <c r="D9" t="n">
-        <v>18.74268913874856</v>
+        <v>18.9927470334914</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.66384510358107</v>
+        <v>83.15271777487231</v>
       </c>
       <c r="D10" t="n">
-        <v>23.20375766540779</v>
+        <v>21.76394088225753</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.02986732412469</v>
+        <v>74.87129683664546</v>
       </c>
       <c r="D11" t="n">
-        <v>18.68343816905788</v>
+        <v>24.06199314279214</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>75.57436695278322</v>
+        <v>81.0914198924703</v>
       </c>
       <c r="D12" t="n">
-        <v>19.19304572208866</v>
+        <v>19.19755297705516</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.83591384396468</v>
+        <v>75.96147426443176</v>
       </c>
       <c r="D13" t="n">
-        <v>18.66793876171769</v>
+        <v>17.90219158936421</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.30946331012478</v>
+        <v>75.58816905862916</v>
       </c>
       <c r="D14" t="n">
-        <v>20.23301667442807</v>
+        <v>19.73139670288661</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.95252235008223</v>
+        <v>75.62968836477481</v>
       </c>
       <c r="D15" t="n">
-        <v>23.27593337121028</v>
+        <v>18.88960922569937</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>79.65553088824177</v>
+        <v>73.87923035454497</v>
       </c>
       <c r="D16" t="n">
-        <v>21.8222892570579</v>
+        <v>20.781950557643</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>72.26336341339385</v>
+        <v>72.70774554798145</v>
       </c>
       <c r="D17" t="n">
-        <v>19.7045337724552</v>
+        <v>17.30141892309741</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.30520534404563</v>
+        <v>74.80716003588439</v>
       </c>
       <c r="D18" t="n">
-        <v>21.03962338811409</v>
+        <v>20.22221076125669</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>71.28032163770908</v>
+        <v>71.89484680479777</v>
       </c>
       <c r="D19" t="n">
-        <v>19.3746474716285</v>
+        <v>22.03727750336125</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.19404884006727</v>
+        <v>73.80026964445584</v>
       </c>
       <c r="D20" t="n">
-        <v>18.51313132688107</v>
+        <v>20.27173007545106</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>66.69072186994389</v>
+        <v>71.07233144240439</v>
       </c>
       <c r="D21" t="n">
-        <v>19.99837408127021</v>
+        <v>18.34910510950225</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>64.30066199719657</v>
+        <v>70.12039202625424</v>
       </c>
       <c r="D22" t="n">
-        <v>17.58038443471093</v>
+        <v>19.29642642063626</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>64.10381479589957</v>
+        <v>68.90142388061187</v>
       </c>
       <c r="D23" t="n">
-        <v>19.38255035663023</v>
+        <v>18.9573336901437</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.21488035205985</v>
+        <v>69.90867473638278</v>
       </c>
       <c r="D24" t="n">
-        <v>22.23206549029161</v>
+        <v>20.77997598610714</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.99837633388333</v>
+        <v>67.15356941310218</v>
       </c>
       <c r="D25" t="n">
-        <v>19.47362098325681</v>
+        <v>20.5671929365097</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>68.31629378877045</v>
+        <v>63.88771578606001</v>
       </c>
       <c r="D26" t="n">
-        <v>19.22997094770545</v>
+        <v>18.28996646654354</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>62.14493669639442</v>
+        <v>60.31615112236133</v>
       </c>
       <c r="D27" t="n">
-        <v>20.28569083091909</v>
+        <v>20.47429596401198</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.19083849660814</v>
+        <v>61.80938749226025</v>
       </c>
       <c r="D28" t="n">
-        <v>20.63831517600551</v>
+        <v>19.44674523556485</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.15000775986954</v>
+        <v>63.41811398366479</v>
       </c>
       <c r="D29" t="n">
-        <v>19.35555293712088</v>
+        <v>21.00511090716164</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.49883110948312</v>
+        <v>63.01351879310388</v>
       </c>
       <c r="D30" t="n">
-        <v>19.21115401798675</v>
+        <v>19.34976659433734</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.18094309502683</v>
+        <v>59.09510572309087</v>
       </c>
       <c r="D31" t="n">
-        <v>19.89327291560654</v>
+        <v>22.29165449709301</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.28377021903284</v>
+        <v>60.72872868707457</v>
       </c>
       <c r="D32" t="n">
-        <v>22.68398384683218</v>
+        <v>18.36923057798453</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>54.39779016143972</v>
+        <v>54.77759396434399</v>
       </c>
       <c r="D33" t="n">
-        <v>19.48996331244277</v>
+        <v>22.42460021156478</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.5815886664151</v>
+        <v>57.71315187433935</v>
       </c>
       <c r="D34" t="n">
-        <v>21.10191331855199</v>
+        <v>18.83722091446985</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>55.53953352415918</v>
+        <v>55.54241325212953</v>
       </c>
       <c r="D35" t="n">
-        <v>22.96600922729373</v>
+        <v>23.39732129188165</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.39826304504999</v>
+        <v>54.2871028864893</v>
       </c>
       <c r="D36" t="n">
-        <v>17.38666189040023</v>
+        <v>21.61090590498036</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.5640406605042</v>
+        <v>55.00224864768762</v>
       </c>
       <c r="D37" t="n">
-        <v>21.13235161872408</v>
+        <v>20.41113277838813</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.6838986232952</v>
+        <v>54.33642768132648</v>
       </c>
       <c r="D38" t="n">
-        <v>19.48189491659255</v>
+        <v>19.8142256577496</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>47.83998639874456</v>
+        <v>52.66716700265223</v>
       </c>
       <c r="D39" t="n">
-        <v>19.27282162278472</v>
+        <v>17.3082926499429</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.28676246832495</v>
+        <v>50.41935880007875</v>
       </c>
       <c r="D40" t="n">
-        <v>21.68575587997165</v>
+        <v>21.83303811742005</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.92345896014724</v>
+        <v>50.6086595818705</v>
       </c>
       <c r="D41" t="n">
-        <v>21.58632256592666</v>
+        <v>20.80195924686858</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.53581447217086</v>
+        <v>51.3054874381108</v>
       </c>
       <c r="D42" t="n">
-        <v>20.49571656628573</v>
+        <v>19.02239106974514</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.53470864585077</v>
+        <v>47.72165788915649</v>
       </c>
       <c r="D43" t="n">
-        <v>21.21250227597456</v>
+        <v>19.07040595361433</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>52.2715744913017</v>
+        <v>49.63917343995409</v>
       </c>
       <c r="D44" t="n">
-        <v>21.62119397126143</v>
+        <v>19.69116485839195</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.86750967970972</v>
+        <v>47.04495264720797</v>
       </c>
       <c r="D45" t="n">
-        <v>19.27838046903623</v>
+        <v>18.79660059225091</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>42.76203001234229</v>
+        <v>46.2192691183973</v>
       </c>
       <c r="D46" t="n">
-        <v>19.47327079443054</v>
+        <v>20.17545137698565</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.84970935380564</v>
+        <v>44.71084085164249</v>
       </c>
       <c r="D47" t="n">
-        <v>19.81200282253466</v>
+        <v>21.77726339499527</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.39966586822473</v>
+        <v>42.28224610120231</v>
       </c>
       <c r="D48" t="n">
-        <v>20.64075696850832</v>
+        <v>20.30377991483789</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>40.04036929581789</v>
+        <v>44.15189167147512</v>
       </c>
       <c r="D49" t="n">
-        <v>20.79643842997417</v>
+        <v>20.49852429769068</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.41611670263845</v>
+        <v>41.002633261735</v>
       </c>
       <c r="D50" t="n">
-        <v>20.80875875408038</v>
+        <v>18.09195958362525</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>42.0441472922604</v>
+        <v>37.8160519595639</v>
       </c>
       <c r="D51" t="n">
-        <v>19.4560507721332</v>
+        <v>21.95017102678393</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.91206033111573</v>
+        <v>41.13054387150721</v>
       </c>
       <c r="D52" t="n">
-        <v>20.88343532717126</v>
+        <v>21.01932070147649</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.3263303385972</v>
+        <v>38.42343705565703</v>
       </c>
       <c r="D53" t="n">
-        <v>21.07509081260596</v>
+        <v>20.97219553297463</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.15881805638105</v>
+        <v>35.50254255240868</v>
       </c>
       <c r="D54" t="n">
-        <v>19.32130248369232</v>
+        <v>22.13414244284954</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.50856884653704</v>
+        <v>37.00510907496573</v>
       </c>
       <c r="D55" t="n">
-        <v>23.66581427423447</v>
+        <v>19.70302971831938</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.57485503629093</v>
+        <v>36.53778053638595</v>
       </c>
       <c r="D56" t="n">
-        <v>22.02695030327677</v>
+        <v>22.59004714857654</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.3758274324949</v>
+        <v>31.01186042997389</v>
       </c>
       <c r="D57" t="n">
-        <v>21.57398781605251</v>
+        <v>19.89964811434034</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>31.22479344683953</v>
+        <v>35.40953342948278</v>
       </c>
       <c r="D58" t="n">
-        <v>20.88153897390313</v>
+        <v>21.28696627240405</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>29.95496416869918</v>
+        <v>32.27523344672195</v>
       </c>
       <c r="D59" t="n">
-        <v>19.09521766745104</v>
+        <v>21.44312023483505</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.92677462143297</v>
+        <v>32.68930324844418</v>
       </c>
       <c r="D60" t="n">
-        <v>21.52662925195389</v>
+        <v>21.79000318459146</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.86307364830405</v>
+        <v>29.92684921692371</v>
       </c>
       <c r="D61" t="n">
-        <v>21.78275879736377</v>
+        <v>19.42778435492751</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.50061522028202</v>
+        <v>30.11835118227533</v>
       </c>
       <c r="D62" t="n">
-        <v>21.28046717600094</v>
+        <v>20.97522818562328</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>26.61138756734291</v>
+        <v>31.73402596133398</v>
       </c>
       <c r="D63" t="n">
-        <v>18.4207510298375</v>
+        <v>20.64266336344549</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.66941166207548</v>
+        <v>26.42284959228893</v>
       </c>
       <c r="D64" t="n">
-        <v>21.33834296886899</v>
+        <v>19.57957323738869</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.26439347767396</v>
+        <v>24.62216609270963</v>
       </c>
       <c r="D65" t="n">
-        <v>20.68500411149155</v>
+        <v>18.23191862420718</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.73147780047785</v>
+        <v>27.48650387372776</v>
       </c>
       <c r="D66" t="n">
-        <v>21.62020656799995</v>
+        <v>20.3657171629584</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.71572432204855</v>
+        <v>23.42958775590128</v>
       </c>
       <c r="D67" t="n">
-        <v>20.64503264041322</v>
+        <v>18.51775311931949</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>20.33235813975576</v>
+        <v>22.17386187257176</v>
       </c>
       <c r="D68" t="n">
-        <v>20.83193088146705</v>
+        <v>20.41438469920899</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>21.23476296194751</v>
+        <v>21.2931151765496</v>
       </c>
       <c r="D69" t="n">
-        <v>21.14023534410164</v>
+        <v>18.16814335701642</v>
       </c>
     </row>
   </sheetData>
